--- a/ActiTime/System Testing TestCases.xlsx
+++ b/ActiTime/System Testing TestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\ActiTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926B753B-0BB1-4A85-B535-0748ADD05A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5727CF8-1CA7-44EA-B1C7-A8A659923F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF68778D-405A-4FE5-A350-A9A680554CA1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -428,6 +428,32 @@
       </rPr>
       <t xml:space="preserve">    :   4  February 2025</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual Result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -467,7 +493,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -475,26 +501,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,191 +852,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A0648A0-62A7-4C50-9BCA-39E6574123D7}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="90" style="6" customWidth="1"/>
-    <col min="3" max="3" width="60.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="90" style="7" customWidth="1"/>
+    <col min="3" max="3" width="60.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
